--- a/myapp/lijekovi.xlsx
+++ b/myapp/lijekovi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Documents\Python\Učenje\Projekt\myapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Documents\Python\Projekt\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847D56A-7416-4D37-9D55-452B310AB78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13EBA4-B9D8-4860-8A4A-12EA6B7C003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BEA0A60-DB29-42D3-9995-335353FE432F}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0BEA0A60-DB29-42D3-9995-335353FE432F}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Lijek</t>
   </si>
@@ -53,21 +53,12 @@
     <t>Ibuprofen</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>3 puta na dan 400 mg</t>
-  </si>
-  <si>
     <t>Ne</t>
   </si>
   <si>
     <t>Paracetamol</t>
   </si>
   <si>
-    <t>4 puta na dan 500-1000mg</t>
-  </si>
-  <si>
     <t>Da</t>
   </si>
   <si>
@@ -84,6 +75,39 @@
   </si>
   <si>
     <t>60 mg/kg</t>
+  </si>
+  <si>
+    <t>400 mg</t>
+  </si>
+  <si>
+    <t>500-1000mg</t>
+  </si>
+  <si>
+    <t>Ucestalost</t>
+  </si>
+  <si>
+    <t>5 mg/kg</t>
+  </si>
+  <si>
+    <t>20 mg/kg</t>
+  </si>
+  <si>
+    <t>Naproksen</t>
+  </si>
+  <si>
+    <t>Glavobolja</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>225-275mg</t>
+  </si>
+  <si>
+    <t>Ketoprofen</t>
+  </si>
+  <si>
+    <t>50mg</t>
   </si>
 </sst>
 </file>
@@ -436,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9798F214-E3CB-4953-9C4E-B742339C75FD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,12 +471,12 @@
     <col min="1" max="1" width="24.21875" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,56 +484,111 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
+      <c r="G1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/lijekovi.xlsx
+++ b/myapp/lijekovi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Documents\Python\Projekt\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13EBA4-B9D8-4860-8A4A-12EA6B7C003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB9D67D-A4DB-403E-85DF-A0F9D4351DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0BEA0A60-DB29-42D3-9995-335353FE432F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BEA0A60-DB29-42D3-9995-335353FE432F}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Lijek</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Naproksen</t>
   </si>
   <si>
-    <t>Glavobolja</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -108,6 +105,69 @@
   </si>
   <si>
     <t>50mg</t>
+  </si>
+  <si>
+    <t>Klorheksidin/lidokain pastile</t>
+  </si>
+  <si>
+    <t>Grlobolja</t>
+  </si>
+  <si>
+    <t>2 pastile</t>
+  </si>
+  <si>
+    <t>1 pastila</t>
+  </si>
+  <si>
+    <t>Dob ispod koje ne</t>
+  </si>
+  <si>
+    <t>Klorheksidin/lidokain sprej</t>
+  </si>
+  <si>
+    <t>3 do 5 potisaka</t>
+  </si>
+  <si>
+    <t>6 do 10</t>
+  </si>
+  <si>
+    <t>2 do 3 potiska</t>
+  </si>
+  <si>
+    <t>Glavobolja, Temperatura, Grlobolja</t>
+  </si>
+  <si>
+    <t>Glavobolja, Grlobolja</t>
+  </si>
+  <si>
+    <t>Acetilsalicilna kiselina</t>
+  </si>
+  <si>
+    <t>500 mg</t>
+  </si>
+  <si>
+    <t>Flurbiprofen pastile</t>
+  </si>
+  <si>
+    <t>Flurbiprofen sprej</t>
+  </si>
+  <si>
+    <t>3 potiska</t>
+  </si>
+  <si>
+    <t>Amilmetakrezol pastile</t>
+  </si>
+  <si>
+    <t>Benzidamin/cetilpiridinij pastile</t>
+  </si>
+  <si>
+    <t>3 do 4</t>
+  </si>
+  <si>
+    <t>Heksetidin otopina za ispiranje</t>
+  </si>
+  <si>
+    <t>20ml</t>
   </si>
 </sst>
 </file>
@@ -144,8 +204,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
@@ -460,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9798F214-E3CB-4953-9C4E-B742339C75FD}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +537,7 @@
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,13 +559,16 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -521,8 +585,11 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -544,51 +611,268 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/lijekovi.xlsx
+++ b/myapp/lijekovi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Documents\Python\Projekt\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB9D67D-A4DB-403E-85DF-A0F9D4351DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D81E41-D2CF-45ED-9724-85A3022FC3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BEA0A60-DB29-42D3-9995-335353FE432F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Lijek</t>
   </si>
@@ -119,9 +119,6 @@
     <t>1 pastila</t>
   </si>
   <si>
-    <t>Dob ispod koje ne</t>
-  </si>
-  <si>
     <t>Klorheksidin/lidokain sprej</t>
   </si>
   <si>
@@ -168,13 +165,80 @@
   </si>
   <si>
     <t>20ml</t>
+  </si>
+  <si>
+    <t>Glavobolja</t>
+  </si>
+  <si>
+    <t>Preporučeno doziranje je 1200-1800 mg dnevno podijeljeno u više doza. U nekim slučajevima se mogu primijeniti i manje doze od 600- 1200 mg. Kod teških i akutnih stanja, doza se može povećati do trenutka uspostave kontrole nad akutnim stanjem pri čemu ukupna dnevna doza ne smije premašiti 2400 mg.</t>
+  </si>
+  <si>
+    <t>Opis-odrasli</t>
+  </si>
+  <si>
+    <t>Opis-djeca</t>
+  </si>
+  <si>
+    <t>Dnevno doziranje Brufen Effect sirupa je 20 – 30 mg/kg tjelesne težine, podijeljeno u više doza. Može se primjenjivati u obliku sirupa ili čepića.</t>
+  </si>
+  <si>
+    <t>Odrasli uzimaju 500 do 1000 tablete najviše do 4 puta na dan. Razmak između pojedinačnih doza mora biti barem 4 sata. Najveća dnevna doza paracetamola je 4 g.</t>
+  </si>
+  <si>
+    <t>Preporučena doza za odrasle osobe i djecu stariju od 16 godina s tjelesnom težinom većom od 50 kg je jedna filmom obložena tableta (275 mg) svakih 8 do 12 sati. Moguće je uzeti i početnu dozu od dvije filmom obložene tablete, a zatim po potrebi još jednu dodatnu filmom obloženu tabletu nakon 8 do 12 sati.</t>
+  </si>
+  <si>
+    <t>Uobičajena doza je 50 mg (1 kapsula) svakih 8 sati, prema potrebi.Maksimalna dnevna doza ne smije biti veća od 150 mg (3 kapsule).</t>
+  </si>
+  <si>
+    <t>Preporučeno doziranje je 6 do 10 pastila dnevno, ovisno o jačini simptoma. Pastilu treba polagano otopiti u ustima svakih 2,5 do 4 sata. Najveća dnevna doza klorheksidina kod odraslih i djece starije od 12 godina je 50 mg, a najveća dnevna doza lidokaina je 10 mg, što odgovara količini od 10 pastila.</t>
+  </si>
+  <si>
+    <t>Preporučena doza je polovica doze za odrasle, tj. 3 do 5 pastila dnevno, ovisno o jačini simptoma. Pastilu treba polagano otopiti u ustima svakih 5 do 8 sati.Najveća dnevna doza klorheksidina kod djece od 6 do 12 godina je 25 mg, a najveća dnevna doza lidokaina je 5 mg, što odgovara količini od 5 pastila.</t>
+  </si>
+  <si>
+    <t>3 do 5 potisaka Angal S spreja, 6 do 10 puta na dan (18 do 50 potisaka). Preporučuje se da odrasli i djeca starija od 12 godina koriste Angal S sprej s vremenskim razmakom od najmanje 2,5 sata između svakog doziranja.</t>
+  </si>
+  <si>
+    <t>Uobičajena doza je polovica doze za odrasle, tj. 2 do 3 potiska Angal S spreja, 3 do 5 puta na dan (6 do 15 potisaka spreja na dan). Preporučuje se da djeca starija od 6 godina koriste Angal S sprej s vremenskim razmakom od najmanje 5 sati između svakog doziranja.</t>
+  </si>
+  <si>
+    <t>Pojedinačna doza od 1–2 tablete (500–1000 mg acetilsalicilatne kiseline), koja se može ponoviti nakon 4 do 8 sati. Najveća dnevna doza je 8 tableta (4000 mg acetilsalicilatne kiseline).</t>
+  </si>
+  <si>
+    <t>1 pastilu polako otopiti u ustima svakih 3 do 6 sati, po potrebi. Najveća dnevna doza iznosi 5 pastila u 24 sata. Trajanje liječenja: Preporučuje se uzimati ovaj lijek tijekom najduže 3 dana.</t>
+  </si>
+  <si>
+    <t>Min.dob</t>
+  </si>
+  <si>
+    <t>Primjenjuje se jedna doza (3 potiska) na stražnji dio grla svakih 3 – 6 sati po potrebi, do najviše 5 doza u periodu od 24 sata.</t>
+  </si>
+  <si>
+    <t>Jednu pastilu polako otopiti u ustima svaka 2 do 3 sata. Najviša dnevna doza je 12 pastila tijekom 24 sata. Preporučuje se lijek uzimati najviše 3 dana.</t>
+  </si>
+  <si>
+    <t>Djeca starija od 6 godina: Jednu pastilu polako otopiti u ustima svaka 2 do 3 sata. Najviša dnevna doza je 12 pastila tijekom 24 sata. Preporučuje se lijek uzimati najviše 3 dana.</t>
+  </si>
+  <si>
+    <t>Odrasli: Za jednu dozu, glavu spreja treba pritisnuti jedan do dva puta. Ovo se može ponoviti svaka 2 sata, 3-5 puta na dan.
+Za optimalan učinak, ne preporučuje se primjenjivati lijek neposredno prije ili poslije pranja zubi. Navedena doza se ne smije prekoračiti. Septolete duo se mogu primjenjivati do 7 dana.</t>
+  </si>
+  <si>
+    <t>Djeca u dobi od 6 do 12 godina: Za jednu dozu, glavu spreja treba pritisnuti jednom. Ovo se može ponoviti svaka 2 sata, 3-5 puta na dan.</t>
+  </si>
+  <si>
+    <t>Tijekom 30 sekundi treba ispirati usta ili grgljati grlo s 10 do 15 ml nerazrijeđene BELOSEPT 1 mg/ml otopine za grgljanje/ispiranje usta ili nanijeti lijek na zahvaćeno mjesto pomoću štapića s vatom, 2 do 3 puta dnevno. Nakon uporabe otopinu treba ispljunuti.</t>
+  </si>
+  <si>
+    <t>Preporučena doza je 10 mg – 15 mg paracetamola/kg tjelesne težine do 4 puta na dan. Razmak između doza mora biti 4 do 6 sati. Može se primjenjivati u obliku sirupa ili čepića.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,16 +247,29 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,13 +277,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
@@ -521,361 +647,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9798F214-E3CB-4953-9C4E-B742339C75FD}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="33.77734375" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="360" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="270" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="270" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="330" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myapp/lijekovi.xlsx
+++ b/myapp/lijekovi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Documents\Python\Projekt\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D81E41-D2CF-45ED-9724-85A3022FC3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A13E195-AABF-49DE-BD3D-CF72BB115193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BEA0A60-DB29-42D3-9995-335353FE432F}"/>
   </bookViews>
@@ -649,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9798F214-E3CB-4953-9C4E-B742339C75FD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
